--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value397.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value397.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.324583995553432</v>
+        <v>2.301569700241089</v>
       </c>
       <c r="B1">
-        <v>1.396644874053884</v>
+        <v>2.956575870513916</v>
       </c>
       <c r="C1">
-        <v>1.531910743385614</v>
+        <v>2.327858924865723</v>
       </c>
       <c r="D1">
-        <v>2.265677095157187</v>
+        <v>2.166896104812622</v>
       </c>
       <c r="E1">
-        <v>2.746708621189451</v>
+        <v>1.838370680809021</v>
       </c>
     </row>
   </sheetData>
